--- a/randomisierung.xlsx
+++ b/randomisierung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="12">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -151,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A244" activeCellId="0" sqref="244:244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,39 +296,19 @@
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.839336985432703</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.844716298623645</v>
+        <v>0.839336985432703</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
@@ -339,16 +319,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.839265047390676</v>
+        <v>0.844716298623645</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,16 +336,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.750470285880826</v>
+        <v>0.839265047390676</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,13 +353,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.749930234940461</v>
+        <v>0.750470285880826</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
@@ -390,13 +370,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.749717927908312</v>
+        <v>0.749930234940461</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -407,10 +387,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.749717927908312</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>5</v>
@@ -418,36 +401,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.670562191103789</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.673767106025445</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,13 +415,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.669707588206863</v>
+        <v>0.670562191103789</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -472,16 +432,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.75017590331526</v>
+        <v>0.673767106025445</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.753772355508041</v>
+        <v>0.669707588206863</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
@@ -506,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.749252131209905</v>
+        <v>0.75017590331526</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,27 +483,30 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.753772355508041</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.779894400548104</v>
+        <v>0.749252131209905</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
@@ -551,36 +514,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.776148060404061</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.779474098803406</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,16 +528,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.748735698889073</v>
+        <v>0.779894400548104</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,16 +545,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.75241447784096</v>
+        <v>0.776148060404061</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.749407897062462</v>
+        <v>0.779474098803406</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
@@ -639,27 +579,30 @@
         <v>6</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.748735698889073</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.498926040556768</v>
+        <v>0.75241447784096</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>5</v>
@@ -667,16 +610,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.494927884861451</v>
+        <v>0.749407897062462</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>5</v>
@@ -684,36 +627,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.499367753273752</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.748832096729871</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.742784853689547</v>
+        <v>0.748832096729871</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>5</v>
@@ -738,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.749765698219306</v>
+        <v>0.742784853689547</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>5</v>
@@ -755,10 +675,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.749765698219306</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>5</v>
@@ -766,16 +689,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.780591470819344</v>
+        <v>0.498926040556768</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>5</v>
@@ -783,33 +706,33 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.784044065897764</v>
+        <v>0.494927884861451</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.778926186773987</v>
+        <v>0.499367753273752</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>5</v>
@@ -817,36 +740,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.750794347348381</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.750697075856152</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.749642580517482</v>
+        <v>0.780591470819344</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>5</v>
@@ -871,61 +771,64 @@
         <v>9</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.784044065897764</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.669339925492201</v>
+        <v>0.778926186773987</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.670938301157463</v>
+        <v>0.750794347348381</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.670375307629204</v>
+        <v>0.750697075856152</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>5</v>
@@ -933,16 +836,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.749489401178502</v>
+        <v>0.749642580517482</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>5</v>
@@ -950,36 +853,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.746217836828467</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.749336200393231</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,35 +867,38 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.669339925492201</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.885470856585735</v>
+        <v>0.670938301157463</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>6</v>
@@ -1024,41 +907,41 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.888981589005265</v>
+        <v>0.670375307629204</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.750491085274961</v>
+        <v>0.749489401178502</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.751354088687305</v>
+        <v>0.746217836828467</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>5</v>
@@ -1066,61 +949,44 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.748880256192981</v>
+        <v>0.749336200393231</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.819672131147541</v>
+        <v>0.885470856585735</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>5</v>
@@ -1128,33 +994,33 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.823153091190952</v>
+        <v>0.88863316711418</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.819562175057465</v>
+        <v>0.889669769487029</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>5</v>
@@ -1162,24 +1028,24 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.749265928079258</v>
+        <v>0.751121865539181</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>7</v>
@@ -1188,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.743333407058442</v>
+        <v>0.751354088687305</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>5</v>
@@ -1196,16 +1062,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.748702090943398</v>
+        <v>0.748880256192981</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>5</v>
@@ -1213,7 +1079,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>8</v>
@@ -1221,39 +1087,19 @@
       <c r="C64" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>0.810277191334859</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.807940990329135</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>5</v>
@@ -1261,16 +1107,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.809112420338531</v>
+        <v>0.823153091190952</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>5</v>
@@ -1278,50 +1124,50 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.749645450472301</v>
+        <v>0.819562175057465</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.750056569230453</v>
+        <v>0.749265928079258</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.750405474460663</v>
+        <v>0.743333407058442</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>5</v>
@@ -1329,13 +1175,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0.748702090943398</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>5</v>
@@ -1343,50 +1192,27 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>0.851025791645535</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>0.849263826363063</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.849508812218638</v>
+        <v>0.810277191334859</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>5</v>
@@ -1394,132 +1220,112 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.748547798945742</v>
+        <v>0.807940990329135</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.752223372503436</v>
+        <v>0.809112420338531</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.749188379255806</v>
+        <v>0.749645450472301</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.750056569230453</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.519961707559211</v>
+        <v>0.750405474460663</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>0.521016426078944</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>0.519036254959475</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.520694604753026</v>
+        <v>0.851025791645535</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>5</v>
@@ -1527,16 +1333,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.748681898066784</v>
+        <v>0.849263826363063</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>5</v>
@@ -1544,16 +1350,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.749094135916587</v>
+        <v>0.849508812218638</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>5</v>
@@ -1561,50 +1367,50 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.75013292835075</v>
+        <v>0.748547798945742</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.508410678060428</v>
+        <v>0.752223372503436</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0.507369235385344</v>
+        <v>0.749188379255806</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>5</v>
@@ -1612,50 +1418,27 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>0.510346906694804</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>0.749161277061203</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.751897533206831</v>
+        <v>0.521016426078944</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>5</v>
@@ -1663,16 +1446,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.749168688775052</v>
+        <v>0.519036254959475</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>5</v>
@@ -1680,13 +1463,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>0.520694604753026</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>5</v>
@@ -1694,33 +1480,33 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.540569300345837</v>
+        <v>0.748681898066784</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.540368256387336</v>
+        <v>0.749094135916587</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>5</v>
@@ -1728,16 +1514,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.749639191495908</v>
+        <v>0.75013292835075</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>5</v>
@@ -1745,44 +1531,27 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>0.748745094460162</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C97" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0.508410678060428</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>5</v>
@@ -1790,13 +1559,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0.507369235385344</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>5</v>
@@ -1804,16 +1576,16 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.507969713640444</v>
+        <v>0.510346906694804</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>5</v>
@@ -1821,16 +1593,16 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.507676254688207</v>
+        <v>0.749161277061203</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>5</v>
@@ -1838,16 +1610,16 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0.510539462728428</v>
+        <v>0.751897533206831</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>5</v>
@@ -1855,16 +1627,16 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.751450087780329</v>
+        <v>0.749168688775052</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>5</v>
@@ -1872,47 +1644,27 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>0.743905054693644</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>0.749556027991204</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0.53882531758638</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>5</v>
@@ -1920,84 +1672,84 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.510026639040994</v>
+        <v>0.540569300345837</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.507188704411971</v>
+        <v>0.540368256387336</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.509654965807256</v>
+        <v>0.749639191495908</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.747237518690055</v>
+        <v>0.748297622907885</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.751010336089131</v>
+        <v>0.748745094460162</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>5</v>
@@ -2005,81 +1757,61 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>0.749424363144622</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C113" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E113" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.486367458632043</v>
+        <v>0.507969713640444</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.489810317223413</v>
+        <v>0.507676254688207</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.749532907699648</v>
+        <v>0.510539462728428</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>5</v>
@@ -2087,47 +1819,50 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.745391010965177</v>
+        <v>0.751450087780329</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0.743905054693644</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.669865989915123</v>
+        <v>0.749556027991204</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>5</v>
@@ -2135,115 +1870,95 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>0.670371366474526</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>0.669270290006259</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.748697559136124</v>
+        <v>0.510026639040994</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.749408689157226</v>
+        <v>0.507188704411971</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0.749809683594356</v>
+        <v>0.509654965807256</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0.747237518690055</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.870863308039609</v>
+        <v>0.751010336089131</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>5</v>
@@ -2251,98 +1966,78 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0.87145284087334</v>
+        <v>0.749424363144622</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>0.869683530804816</v>
-      </c>
-      <c r="E128" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>0.750640924833506</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.75245115262424</v>
+        <v>0.486367458632043</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.750676293283695</v>
+        <v>0.489810317223413</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0.749532907699648</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>5</v>
@@ -2350,67 +2045,44 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.999354781945626</v>
+        <v>0.745391010965177</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="0" t="n">
-        <v>1.00027765194137</v>
-      </c>
-      <c r="E134" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B135" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>0.750377408755883</v>
-      </c>
-      <c r="E135" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.748941833170064</v>
+        <v>0.669865989915123</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>5</v>
@@ -2418,30 +2090,33 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.750060041752111</v>
+        <v>0.670371366474526</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0.66916151905268</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>5</v>
@@ -2449,33 +2124,33 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.609871074844621</v>
+        <v>0.748697559136124</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.61051400160854</v>
+        <v>0.749408689157226</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>5</v>
@@ -2483,16 +2158,16 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.609654621503778</v>
+        <v>0.749809683594356</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>5</v>
@@ -2500,50 +2175,27 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="0" t="n">
-        <v>0.748028144512671</v>
-      </c>
-      <c r="E142" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B143" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="0" t="n">
-        <v>0.748484199487471</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.749419112314819</v>
+        <v>0.870863308039609</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>5</v>
@@ -2551,13 +2203,16 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0.871351012813557</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>5</v>
@@ -2565,33 +2220,33 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0.69169594969484</v>
+        <v>0.869683530804816</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0.697729466633626</v>
+        <v>0.750640924833506</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>5</v>
@@ -2599,16 +2254,16 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0.689996075149774</v>
+        <v>0.75245115262424</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>5</v>
@@ -2616,64 +2271,44 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0.749865897194014</v>
+        <v>0.750676293283695</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>0.752078721151497</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B151" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="0" t="n">
-        <v>0.749410109558995</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>0.999354781945626</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>5</v>
@@ -2681,16 +2316,16 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0.6320279035163</v>
+        <v>1.00027765194137</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>5</v>
@@ -2698,16 +2333,16 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0.627760555773399</v>
+        <v>0.750377408755883</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>5</v>
@@ -2715,16 +2350,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0.628959912363809</v>
+        <v>0.748941833170064</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>5</v>
@@ -2732,16 +2367,16 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>0.74927495486964</v>
+        <v>0.750060041752111</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>5</v>
@@ -2749,47 +2384,27 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="0" t="n">
-        <v>0.753518633265468</v>
-      </c>
-      <c r="E157" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B158" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>0.750201557726873</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0.609871074844621</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>5</v>
@@ -2797,16 +2412,16 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0.6916502252444</v>
+        <v>0.61051400160854</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>5</v>
@@ -2814,16 +2429,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0.689037314356886</v>
+        <v>0.609654621503778</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>5</v>
@@ -2831,16 +2446,16 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0.690751958765941</v>
+        <v>0.748028144512671</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>5</v>
@@ -2848,16 +2463,16 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0.750610703975128</v>
+        <v>0.748484199487471</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>5</v>
@@ -2865,16 +2480,16 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0.742332666688765</v>
+        <v>0.749419112314819</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>5</v>
@@ -2882,47 +2497,27 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" s="0" t="n">
-        <v>0.750077670764724</v>
-      </c>
-      <c r="E165" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B166" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C166" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0.649009562209851</v>
+        <v>0.69169594969484</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>5</v>
@@ -2930,33 +2525,33 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>0.655156609227266</v>
+        <v>0.697729466633626</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>0.649285730154851</v>
+        <v>0.689996075149774</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>5</v>
@@ -2964,24 +2559,24 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0.750512721024333</v>
+        <v>0.749865897194014</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>5</v>
@@ -2990,72 +2585,52 @@
         <v>9</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0.748702495798382</v>
+        <v>0.752078721151497</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0.75021477026987</v>
+        <v>0.749410109558995</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E173" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B174" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="0" t="n">
-        <v>0.629855172133299</v>
-      </c>
-      <c r="E174" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0.629804060958813</v>
+        <v>0.6320279035163</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>5</v>
@@ -3063,16 +2638,16 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>0.630410794558287</v>
+        <v>0.627760555773399</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>5</v>
@@ -3080,16 +2655,16 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>0.752029667496509</v>
+        <v>0.628959912363809</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>5</v>
@@ -3097,16 +2672,16 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0.745506422568361</v>
+        <v>0.74927495486964</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>5</v>
@@ -3114,81 +2689,61 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0.750612858550025</v>
+        <v>0.753518633265468</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0.750201557726873</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <v>0.659755646057016</v>
-      </c>
-      <c r="E181" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B182" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <v>0.659703133589885</v>
-      </c>
-      <c r="E182" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0.660345223373296</v>
+        <v>0.6916502252444</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>5</v>
@@ -3196,16 +2751,16 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>0.750372343157323</v>
+        <v>0.689037314356886</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>5</v>
@@ -3213,16 +2768,16 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>0.752056360750243</v>
+        <v>0.690751958765941</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>5</v>
@@ -3230,16 +2785,16 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0.750707588890854</v>
+        <v>0.750610703975128</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>5</v>
@@ -3247,13 +2802,16 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0.742332666688765</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>5</v>
@@ -3261,16 +2819,16 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>0.820623136824199</v>
+        <v>0.750077670764724</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>5</v>
@@ -3278,50 +2836,27 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="0" t="n">
-        <v>0.753814259576226</v>
-      </c>
-      <c r="E189" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B190" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="0" t="n">
-        <v>0.751007878092984</v>
-      </c>
-      <c r="E190" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0.779248283909655</v>
+        <v>0.649009562209851</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>5</v>
@@ -3329,36 +2864,855 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0.748992950654582</v>
+        <v>0.655156609227266</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>0.649285730154851</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>0.750512721024333</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>0.748702495798382</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>0.75021477026987</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0.629855172133299</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>0.629804060958813</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0.630410794558287</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>0.752029667496509</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>0.745506422568361</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>0.750612858550025</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>0.659755646057016</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>0.659094845535586</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>0.660345223373296</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>0.750372343157323</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>0.752056360750243</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>0.750707588890854</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>0.820623136824199</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>0.750361765043319</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>0.753814259576226</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0.751007878092984</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>0.780813348780569</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>0.779487104100668</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>0.779998297916428</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>0.749180121556696</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>0.748992950654582</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>0.750123107568246</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B193" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="0" t="n">
+      <c r="B229" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="0" t="n">
         <v>0.670312224378197</v>
       </c>
-      <c r="E193" s="0" t="n">
-        <v>5</v>
+      <c r="E229" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>0.675226797959741</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>0.670075987616833</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>0.748006426820871</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>0.744727035924894</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>0.750756310611306</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>0.750323894132889</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>0.756197491421134</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>0.7501665802917</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>0.499363302534944</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>0.500585243041497</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>0.500679137200478</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>0.880489638140234</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>0.877063106346909</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>0.88061574808963</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>0.749012564676553</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>0.745854719185883</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0.750387155212716</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
